--- a/bots/crawl_ch/output/vegi_coop_2023-03-03.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-03-03.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Jungspinat 3.80 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Jungspinat - Online kein Bestand 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7152,7 +7152,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7282,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7546,7 +7546,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7668,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8005,7 +8005,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8070,7 +8070,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8208,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8342,7 +8342,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8480,7 +8480,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8614,7 +8614,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9239,7 +9239,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9308,7 +9308,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9377,7 +9377,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9515,7 +9515,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9726,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9860,7 +9860,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9929,7 +9929,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -9994,7 +9994,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10063,7 +10063,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10132,7 +10132,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10270,7 +10270,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10412,7 +10412,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10477,7 +10477,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10542,7 +10542,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10658,7 +10658,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10727,7 +10727,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10796,7 +10796,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10920,7 +10920,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11403,7 +11403,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11472,7 +11472,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11537,7 +11537,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12020,7 +12020,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12142,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12434,7 +12434,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12503,7 +12503,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12576,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12645,7 +12645,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12714,7 +12714,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12783,141 +12783,141 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>5947702</t>
+          <t>4090187</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Fairtrade Trauben Mix kernarm</t>
+          <t>Endivien-Salat Lavata 1 Stück</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/fairtrade-trauben-mix-kernarm/p/5947702</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/endivien-salat-lavata-1-stueck/p/4090187</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E183" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>2.50/1ST</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Fairtrade Trauben Mix kernarm 2.95 Schweizer Franken</t>
+          <t>Endivien-Salat Lavata 1 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>4090187</t>
+          <t>5947702</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Endivien-Salat Lavata 1 Stück</t>
+          <t>Fairtrade Trauben Mix kernarm</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/endivien-salat-lavata-1-stueck/p/4090187</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/trauben-beeren/trauben/fairtrade-trauben-mix-kernarm/p/5947702</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E184" t="n">
-        <v>4</v>
-      </c>
-      <c r="F184" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2.50/1ST</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'trauben-beeren', 'trauben']</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Endivien-Salat Lavata 1 Stück 2.50 Schweizer Franken</t>
+          <t>Fairtrade Trauben Mix kernarm 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -12982,7 +12982,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13047,7 +13047,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13116,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13323,7 +13323,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13465,7 +13465,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13530,7 +13530,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13603,7 +13603,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13745,7 +13745,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13810,7 +13810,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13879,7 +13879,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -13948,7 +13948,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14082,7 +14082,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14362,7 +14362,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14431,7 +14431,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14498,7 +14498,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14567,7 +14567,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14636,7 +14636,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14705,7 +14705,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14778,7 +14778,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14851,7 +14851,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14916,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -14981,7 +14981,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15050,7 +15050,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15119,7 +15119,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15188,7 +15188,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15257,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15324,7 +15324,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15397,7 +15397,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15462,7 +15462,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15531,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15600,7 +15600,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15669,7 +15669,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15734,7 +15734,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15807,7 +15807,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15876,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -15945,7 +15945,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16014,7 +16014,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16079,7 +16079,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16148,7 +16148,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16213,7 +16213,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16278,7 +16278,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16347,7 +16347,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16416,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16562,7 +16562,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16631,7 +16631,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16696,7 +16696,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16838,7 +16838,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16887,7 +16887,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -16960,7 +16960,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17029,7 +17029,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17098,7 +17098,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17240,7 +17240,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17451,7 +17451,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17524,7 +17524,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17593,7 +17593,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17658,7 +17658,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17798,7 +17798,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17867,7 +17867,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -17936,7 +17936,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18074,7 +18074,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18143,7 +18143,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18216,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18289,7 +18289,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18362,7 +18362,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18435,7 +18435,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18508,7 +18508,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18577,7 +18577,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18642,7 +18642,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18707,7 +18707,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18849,7 +18849,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18922,7 +18922,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -18995,7 +18995,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19133,7 +19133,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19198,7 +19198,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19263,7 +19263,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19332,7 +19332,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19397,7 +19397,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19470,7 +19470,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19543,7 +19543,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19612,7 +19612,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19679,7 +19679,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19748,7 +19748,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19813,7 +19813,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19882,7 +19882,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20024,7 +20024,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20097,141 +20097,141 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>3091258</t>
+          <t>7059275</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Batavia-Salat 1 Stück</t>
+          <t>Birnen Gute Luise IP-Suisse ca. 1kg</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-batavia-salat-1-stueck/p/3091258</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/birnen-gute-luise-ip-suisse-ca/p/7059275</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>3.60/1kg</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Batavia-Salat 1 Stück 2.95 Schweizer Franken</t>
+          <t>Birnen Gute Luise IP-Suisse ca. 1kg 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>7059275</t>
+          <t>3091258</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Birnen Gute Luise IP-Suisse ca. 1kg</t>
+          <t>Naturaplan Bio Batavia-Salat 1 Stück</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/birnen-gute-luise-ip-suisse-ca/p/7059275</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-batavia-salat-1-stueck/p/3091258</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E290" t="n">
-        <v>5</v>
-      </c>
-      <c r="F290" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>3.60/1kg</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Birnen Gute Luise IP-Suisse ca. 1kg 3.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Batavia-Salat 1 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20296,7 +20296,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20365,7 +20365,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20438,7 +20438,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20505,7 +20505,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20574,7 +20574,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20643,7 +20643,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20712,7 +20712,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20777,7 +20777,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20850,7 +20850,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20903,7 +20903,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -20972,7 +20972,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21045,7 +21045,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21118,7 +21118,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21183,7 +21183,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21305,13 +21305,13 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Swiss Cherry Rispen-Tomaten 4.95 Schweizer Franken</t>
+          <t>Swiss Cherry Rispen-Tomaten - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21380,7 +21380,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21581,7 +21581,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21646,7 +21646,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21719,7 +21719,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21788,7 +21788,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21857,7 +21857,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -21930,45 +21930,45 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6703995</t>
+          <t>4655212</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Planted pulled BBQ</t>
+          <t>Betty Bossi Mini Kopfsalat rot</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-pulled-bbq/p/6703995</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E316" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Planted</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -21978,7 +21978,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -21988,60 +21988,60 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Planted pulled BBQ 6.95 Schweizer Franken</t>
+          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>4655212</t>
+          <t>6703995</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot</t>
+          <t>Planted pulled BBQ</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-pulled-bbq/p/6703995</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E317" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Planted</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22051,7 +22051,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22061,22 +22061,22 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
+          <t>Planted pulled BBQ 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22214,7 +22214,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22287,7 +22287,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22571,7 +22571,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22922,7 +22922,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -22987,7 +22987,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23060,7 +23060,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23125,7 +23125,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23198,7 +23198,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23263,7 +23263,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23336,7 +23336,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23405,7 +23405,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23478,7 +23478,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23551,45 +23551,45 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6868469</t>
+          <t>3091461</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Yolo Crispy Burger 2x100g</t>
+          <t>Schöni Sauerkraut roh</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/yolo-crispy-burger-2x100g/p/6868469</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerkraut-roh/p/3091461</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E339" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -23599,7 +23599,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -23609,12 +23609,12 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Yolo Crispy Burger 2x100g 5.50 Schweizer Franken</t>
+          <t>Schöni Sauerkraut roh 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -23624,43 +23624,45 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6590457</t>
+          <t>6868469</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Eisberg</t>
+          <t>Yolo Crispy Burger 2x100g</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-eisberg/p/6590457</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/yolo-crispy-burger-2x100g/p/6868469</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>11</v>
+      </c>
       <c r="E340" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -23670,7 +23672,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -23680,56 +23682,58 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Eisberg 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr"/>
+          <t>Yolo Crispy Burger 2x100g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>3091461</t>
+          <t>6590457</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Schöni Sauerkraut roh</t>
+          <t>Naturaplan Bio Eisberg</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerkraut-roh/p/3091461</t>
-        </is>
-      </c>
-      <c r="D341" t="n">
-        <v>16</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-eisberg/p/6590457</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr"/>
       <c r="E341" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -23739,7 +23743,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -23749,22 +23753,18 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>Schöni Sauerkraut roh 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Eisberg 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23833,7 +23833,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23898,7 +23898,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24044,7 +24044,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24117,7 +24117,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24190,7 +24190,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24253,7 +24253,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24322,7 +24322,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24391,7 +24391,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24460,7 +24460,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24594,7 +24594,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24663,7 +24663,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24732,7 +24732,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24805,7 +24805,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24874,7 +24874,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -24939,7 +24939,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25012,7 +25012,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25077,7 +25077,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25150,7 +25150,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25223,7 +25223,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25288,7 +25288,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25434,7 +25434,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25503,7 +25503,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25576,7 +25576,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25645,7 +25645,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25714,7 +25714,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25787,7 +25787,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25856,7 +25856,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -25929,7 +25929,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26002,7 +26002,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26075,7 +26075,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26144,7 +26144,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26217,7 +26217,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26282,7 +26282,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26351,7 +26351,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26424,7 +26424,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26497,7 +26497,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26570,7 +26570,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26639,7 +26639,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26692,7 +26692,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26761,7 +26761,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26834,7 +26834,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26903,7 +26903,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -26976,7 +26976,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27049,7 +27049,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27122,7 +27122,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27260,7 +27260,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27333,7 +27333,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27400,7 +27400,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27469,7 +27469,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27542,7 +27542,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27615,7 +27615,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27688,7 +27688,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27826,7 +27826,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27895,7 +27895,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -27968,7 +27968,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28041,7 +28041,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28108,7 +28108,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28181,7 +28181,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28254,7 +28254,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28327,7 +28327,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28400,7 +28400,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28473,7 +28473,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28546,7 +28546,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28613,7 +28613,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28682,7 +28682,7 @@
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28828,7 +28828,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28893,7 +28893,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -28966,7 +28966,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29037,7 +29037,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29106,7 +29106,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29179,7 +29179,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29252,7 +29252,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29325,7 +29325,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29398,7 +29398,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29469,7 +29469,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29542,7 +29542,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29615,7 +29615,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29688,7 +29688,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29753,7 +29753,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29826,7 +29826,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -29899,45 +29899,45 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>6661982</t>
+          <t>4158362</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative</t>
+          <t>Seeberger Soft Datteln getrocknet</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-soft-datteln-getrocknet/p/4158362</t>
         </is>
       </c>
       <c r="D429" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E429" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Seeberger</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>2.14/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -29947,7 +29947,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -29957,60 +29957,56 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Fleischkäsealternative 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N429" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Seeberger Soft Datteln getrocknet 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>6881493</t>
+          <t>6661982</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Yolo Cevapcici</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/yolo-cevapcici/p/6881493</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-fleischkaesealternative/p/6661982</t>
         </is>
       </c>
       <c r="D430" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E430" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2.06/100g</t>
+          <t>2.14/100g</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -30020,7 +30016,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -30030,12 +30026,12 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>Yolo Cevapcici 4.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Fleischkäsealternative 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
@@ -30045,33 +30041,35 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>6765156</t>
+          <t>6881493</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Betty Bossi Süsskartoffel &amp;amp; Bulgur Mix</t>
+          <t>Yolo Cevapcici</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-suesskartoffel-bulgur-mix/p/6765156</t>
-        </is>
-      </c>
-      <c r="D431" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/yolo-cevapcici/p/6881493</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>9</v>
+      </c>
       <c r="E431" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -30081,7 +30079,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.06/100g</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -30091,7 +30089,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -30101,12 +30099,12 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef']</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>Betty Bossi Süsskartoffel &amp;amp; Bulgur Mix 4.95 Schweizer Franken</t>
+          <t>Yolo Cevapcici 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N431" t="inlineStr">
@@ -30116,45 +30114,43 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>4158362</t>
+          <t>6765156</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Seeberger Soft Datteln getrocknet</t>
+          <t>Betty Bossi Süsskartoffel &amp;amp; Bulgur Mix</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-soft-datteln-getrocknet/p/4158362</t>
-        </is>
-      </c>
-      <c r="D432" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-suesskartoffel-bulgur-mix/p/6765156</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr"/>
       <c r="E432" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Seeberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -30164,7 +30160,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -30174,18 +30170,22 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>Seeberger Soft Datteln getrocknet 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N432" t="inlineStr"/>
+          <t>Betty Bossi Süsskartoffel &amp;amp; Bulgur Mix 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -30258,7 +30258,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -30331,7 +30331,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -30404,7 +30404,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -30473,7 +30473,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -30538,7 +30538,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -30609,7 +30609,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -30680,41 +30680,45 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>4126978</t>
+          <t>6629801</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Spargeln grün extra-fein ca. 500g</t>
+          <t>Outlawz Food Seitöner</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen-extra-fein-ca/p/4126978</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/outlawz-food-seitoener/p/6629801</t>
         </is>
       </c>
       <c r="D440" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E440" t="n">
-        <v>3</v>
-      </c>
-      <c r="F440" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>OUTLAWZ Food</t>
+        </is>
+      </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -30724,7 +30728,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -30734,56 +30738,56 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>Spargeln grün extra-fein ca. 500g 7.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N440" t="inlineStr"/>
+          <t>Outlawz Food Seitöner 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N440" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>6629801</t>
+          <t>4126978</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Outlawz Food Seitöner</t>
+          <t>Spargeln grün extra-fein ca. 500g</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/outlawz-food-seitoener/p/6629801</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen-extra-fein-ca/p/4126978</t>
         </is>
       </c>
       <c r="D441" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E441" t="n">
-        <v>5</v>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>OUTLAWZ Food</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -30793,7 +30797,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -30803,22 +30807,18 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>Outlawz Food Seitöner 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N441" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Spargeln grün extra-fein ca. 500g 7.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -30887,7 +30887,7 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -30960,7 +30960,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31033,7 +31033,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31104,7 +31104,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31177,7 +31177,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31250,7 +31250,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31313,7 +31313,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31386,7 +31386,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31455,7 +31455,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31524,7 +31524,7 @@
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31597,7 +31597,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31666,7 +31666,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31731,7 +31731,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31804,7 +31804,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31877,7 +31877,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -31940,7 +31940,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32009,7 +32009,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32082,7 +32082,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32155,7 +32155,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32228,7 +32228,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32301,7 +32301,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32366,7 +32366,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32439,7 +32439,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32512,7 +32512,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32581,7 +32581,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32654,7 +32654,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32727,7 +32727,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32800,7 +32800,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32869,7 +32869,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32922,7 +32922,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33064,7 +33064,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33137,7 +33137,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33210,7 +33210,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33279,7 +33279,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33352,7 +33352,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33425,7 +33425,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33488,7 +33488,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33561,7 +33561,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33624,7 +33624,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33697,7 +33697,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33770,7 +33770,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33839,7 +33839,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33904,7 +33904,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -33977,7 +33977,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34050,7 +34050,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34115,7 +34115,7 @@
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34253,7 +34253,7 @@
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34326,7 +34326,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34395,7 +34395,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34468,7 +34468,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34541,7 +34541,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34614,7 +34614,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34679,7 +34679,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34752,7 +34752,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34825,7 +34825,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34882,7 +34882,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -34955,7 +34955,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35028,7 +35028,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35093,7 +35093,7 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35162,7 +35162,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35304,7 +35304,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35377,7 +35377,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35450,7 +35450,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35523,7 +35523,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35592,7 +35592,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35661,7 +35661,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35734,7 +35734,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35805,7 +35805,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35874,7 +35874,7 @@
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35925,7 +35925,7 @@
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -35994,7 +35994,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36065,7 +36065,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36130,7 +36130,7 @@
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36203,7 +36203,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36268,7 +36268,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36341,7 +36341,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36412,7 +36412,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36481,7 +36481,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36546,7 +36546,7 @@
       <c r="N523" t="inlineStr"/>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36617,7 +36617,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36688,7 +36688,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36759,7 +36759,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36822,7 +36822,7 @@
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
@@ -36893,7 +36893,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2023-03-03 12:57:58</t>
+          <t>2023-03-03 20:51:00</t>
         </is>
       </c>
     </row>
